--- a/input/dynamic_data/forecasting_method/regression/forecast_point_gw20.xlsx
+++ b/input/dynamic_data/forecasting_method/regression/forecast_point_gw20.xlsx
@@ -125,19 +125,19 @@
         <v>2.0</v>
       </c>
       <c r="B3" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C3" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D3" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E3" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F3" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="4">
@@ -145,19 +145,19 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C4" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D4" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E4" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F4" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="5">
@@ -185,19 +185,19 @@
         <v>5.0</v>
       </c>
       <c r="B6" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C6" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D6" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E6" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F6" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="7">
@@ -205,19 +205,19 @@
         <v>6.0</v>
       </c>
       <c r="B7" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C7" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D7" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E7" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F7" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="8">
@@ -225,19 +225,19 @@
         <v>7.0</v>
       </c>
       <c r="B8" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C8" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E8" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F8" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="9">
@@ -305,19 +305,19 @@
         <v>11.0</v>
       </c>
       <c r="B12" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C12" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D12" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E12" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F12" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="13">
@@ -345,19 +345,19 @@
         <v>13.0</v>
       </c>
       <c r="B14" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C14" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D14" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E14" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F14" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="15">
@@ -365,19 +365,19 @@
         <v>14.0</v>
       </c>
       <c r="B15" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C15" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D15" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E15" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F15" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="16">
@@ -465,19 +465,19 @@
         <v>19.0</v>
       </c>
       <c r="B20" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C20" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D20" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E20" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F20" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="21">
@@ -505,19 +505,19 @@
         <v>21.0</v>
       </c>
       <c r="B22" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C22" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D22" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E22" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F22" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="23">
@@ -605,19 +605,19 @@
         <v>26.0</v>
       </c>
       <c r="B27" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C27" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D27" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E27" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F27" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="28">
@@ -625,19 +625,19 @@
         <v>27.0</v>
       </c>
       <c r="B28" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C28" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D28" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E28" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F28" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="29">
@@ -645,19 +645,19 @@
         <v>28.0</v>
       </c>
       <c r="B29" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C29" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D29" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E29" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F29" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="30">
@@ -765,19 +765,19 @@
         <v>34.0</v>
       </c>
       <c r="B35" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C35" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D35" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E35" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F35" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="36">
@@ -805,19 +805,19 @@
         <v>36.0</v>
       </c>
       <c r="B37" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C37" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D37" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E37" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F37" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="38">
@@ -845,19 +845,19 @@
         <v>38.0</v>
       </c>
       <c r="B39" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C39" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D39" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E39" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F39" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="40">
@@ -885,19 +885,19 @@
         <v>40.0</v>
       </c>
       <c r="B41" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C41" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D41" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E41" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F41" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="42">
@@ -905,19 +905,19 @@
         <v>41.0</v>
       </c>
       <c r="B42" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C42" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D42" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E42" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F42" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="43">
@@ -925,19 +925,19 @@
         <v>42.0</v>
       </c>
       <c r="B43" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C43" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D43" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E43" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F43" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="44">
@@ -945,19 +945,19 @@
         <v>43.0</v>
       </c>
       <c r="B44" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C44" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D44" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E44" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F44" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="45">
@@ -1105,19 +1105,19 @@
         <v>51.0</v>
       </c>
       <c r="B52" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C52" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D52" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E52" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F52" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="53">
@@ -1205,19 +1205,19 @@
         <v>56.0</v>
       </c>
       <c r="B57" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C57" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D57" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E57" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F57" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="58">
@@ -1225,19 +1225,19 @@
         <v>57.0</v>
       </c>
       <c r="B58" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C58" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D58" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E58" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F58" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="59">
@@ -1265,19 +1265,19 @@
         <v>59.0</v>
       </c>
       <c r="B60" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C60" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D60" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E60" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F60" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="61">
@@ -1425,19 +1425,19 @@
         <v>67.0</v>
       </c>
       <c r="B68" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C68" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D68" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E68" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F68" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="69">
@@ -1565,19 +1565,19 @@
         <v>74.0</v>
       </c>
       <c r="B75" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C75" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D75" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E75" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F75" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="76">
@@ -1605,19 +1605,19 @@
         <v>76.0</v>
       </c>
       <c r="B77" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C77" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D77" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E77" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F77" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="78">
@@ -1685,19 +1685,19 @@
         <v>80.0</v>
       </c>
       <c r="B81" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C81" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D81" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E81" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F81" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="82">
@@ -1705,19 +1705,19 @@
         <v>81.0</v>
       </c>
       <c r="B82" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C82" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D82" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E82" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F82" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="83">
@@ -1725,19 +1725,19 @@
         <v>82.0</v>
       </c>
       <c r="B83" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C83" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D83" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E83" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F83" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="84">
@@ -1745,19 +1745,19 @@
         <v>83.0</v>
       </c>
       <c r="B84" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C84" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D84" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E84" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F84" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="85">
@@ -1765,19 +1765,19 @@
         <v>84.0</v>
       </c>
       <c r="B85" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C85" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D85" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E85" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F85" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="86">
@@ -1785,19 +1785,19 @@
         <v>85.0</v>
       </c>
       <c r="B86" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C86" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D86" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E86" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F86" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="87">
@@ -1805,19 +1805,19 @@
         <v>86.0</v>
       </c>
       <c r="B87" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C87" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D87" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E87" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F87" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="88">
@@ -1825,19 +1825,19 @@
         <v>87.0</v>
       </c>
       <c r="B88" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C88" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D88" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E88" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F88" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="89">
@@ -1845,19 +1845,19 @@
         <v>88.0</v>
       </c>
       <c r="B89" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C89" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D89" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E89" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F89" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="90">
@@ -1905,19 +1905,19 @@
         <v>91.0</v>
       </c>
       <c r="B92" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C92" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D92" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E92" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F92" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="93">
@@ -1985,19 +1985,19 @@
         <v>95.0</v>
       </c>
       <c r="B96" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C96" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D96" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E96" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F96" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="97">
@@ -2125,19 +2125,19 @@
         <v>102.0</v>
       </c>
       <c r="B103" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C103" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D103" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E103" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F103" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="104">
@@ -2225,19 +2225,19 @@
         <v>107.0</v>
       </c>
       <c r="B108" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C108" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D108" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E108" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F108" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="109">
@@ -2265,19 +2265,19 @@
         <v>109.0</v>
       </c>
       <c r="B110" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C110" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D110" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E110" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F110" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="111">
@@ -2305,19 +2305,19 @@
         <v>111.0</v>
       </c>
       <c r="B112" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C112" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D112" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E112" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F112" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="113">
@@ -2325,19 +2325,19 @@
         <v>112.0</v>
       </c>
       <c r="B113" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C113" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D113" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E113" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F113" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="114">
@@ -2345,19 +2345,19 @@
         <v>113.0</v>
       </c>
       <c r="B114" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C114" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D114" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E114" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F114" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="115">
@@ -2365,19 +2365,19 @@
         <v>114.0</v>
       </c>
       <c r="B115" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C115" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D115" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E115" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F115" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="116">
@@ -2445,19 +2445,19 @@
         <v>118.0</v>
       </c>
       <c r="B119" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C119" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D119" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E119" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F119" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="120">
@@ -2485,19 +2485,19 @@
         <v>120.0</v>
       </c>
       <c r="B121" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C121" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D121" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E121" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F121" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="122">
@@ -2745,19 +2745,19 @@
         <v>133.0</v>
       </c>
       <c r="B134" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C134" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D134" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E134" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F134" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="135">
@@ -2845,19 +2845,19 @@
         <v>138.0</v>
       </c>
       <c r="B139" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C139" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D139" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E139" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F139" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="140">
@@ -2865,19 +2865,19 @@
         <v>139.0</v>
       </c>
       <c r="B140" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C140" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D140" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E140" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F140" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="141">
@@ -2885,19 +2885,19 @@
         <v>140.0</v>
       </c>
       <c r="B141" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C141" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D141" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E141" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F141" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="142">
@@ -2905,19 +2905,19 @@
         <v>141.0</v>
       </c>
       <c r="B142" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C142" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D142" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E142" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F142" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="143">
@@ -2925,19 +2925,19 @@
         <v>142.0</v>
       </c>
       <c r="B143" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C143" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D143" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E143" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F143" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="144">
@@ -2945,19 +2945,19 @@
         <v>143.0</v>
       </c>
       <c r="B144" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C144" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D144" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E144" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F144" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="145">
@@ -2965,19 +2965,19 @@
         <v>144.0</v>
       </c>
       <c r="B145" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C145" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D145" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E145" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F145" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="146">
@@ -2985,19 +2985,19 @@
         <v>145.0</v>
       </c>
       <c r="B146" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C146" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D146" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E146" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F146" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="147">
@@ -3005,19 +3005,19 @@
         <v>146.0</v>
       </c>
       <c r="B147" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C147" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D147" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E147" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F147" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="148">
@@ -3025,19 +3025,19 @@
         <v>147.0</v>
       </c>
       <c r="B148" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C148" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D148" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E148" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F148" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="149">
@@ -3045,19 +3045,19 @@
         <v>148.0</v>
       </c>
       <c r="B149" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C149" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D149" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E149" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F149" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="150">
@@ -3105,19 +3105,19 @@
         <v>151.0</v>
       </c>
       <c r="B152" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C152" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D152" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E152" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F152" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="153">
@@ -3445,19 +3445,19 @@
         <v>168.0</v>
       </c>
       <c r="B169" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C169" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D169" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E169" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F169" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="170">
@@ -3465,19 +3465,19 @@
         <v>169.0</v>
       </c>
       <c r="B170" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C170" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D170" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E170" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F170" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="171">
@@ -3525,19 +3525,19 @@
         <v>172.0</v>
       </c>
       <c r="B173" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C173" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D173" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E173" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F173" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="174">
@@ -3545,19 +3545,19 @@
         <v>173.0</v>
       </c>
       <c r="B174" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C174" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D174" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E174" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F174" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="175">
@@ -3705,19 +3705,19 @@
         <v>181.0</v>
       </c>
       <c r="B182" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C182" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D182" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E182" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F182" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="183">
@@ -3785,19 +3785,19 @@
         <v>185.0</v>
       </c>
       <c r="B186" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C186" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D186" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E186" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F186" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="187">
@@ -3825,19 +3825,19 @@
         <v>187.0</v>
       </c>
       <c r="B188" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C188" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D188" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E188" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F188" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="189">
@@ -3845,19 +3845,19 @@
         <v>188.0</v>
       </c>
       <c r="B189" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C189" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D189" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E189" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F189" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="190">
@@ -3865,19 +3865,19 @@
         <v>189.0</v>
       </c>
       <c r="B190" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C190" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D190" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E190" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F190" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="191">
@@ -3885,19 +3885,19 @@
         <v>190.0</v>
       </c>
       <c r="B191" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C191" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D191" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E191" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F191" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="192">
@@ -3905,19 +3905,19 @@
         <v>191.0</v>
       </c>
       <c r="B192" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C192" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D192" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E192" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F192" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="193">
@@ -3925,19 +3925,19 @@
         <v>192.0</v>
       </c>
       <c r="B193" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C193" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D193" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E193" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F193" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="194">
@@ -3945,19 +3945,19 @@
         <v>193.0</v>
       </c>
       <c r="B194" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C194" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D194" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E194" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F194" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="195">
@@ -3985,19 +3985,19 @@
         <v>195.0</v>
       </c>
       <c r="B196" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C196" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D196" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E196" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F196" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="197">
@@ -4025,19 +4025,19 @@
         <v>197.0</v>
       </c>
       <c r="B198" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C198" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D198" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E198" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F198" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="199">
@@ -4085,19 +4085,19 @@
         <v>200.0</v>
       </c>
       <c r="B201" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C201" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D201" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E201" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F201" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="202">
@@ -4205,19 +4205,19 @@
         <v>206.0</v>
       </c>
       <c r="B207" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C207" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D207" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E207" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F207" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="208">
@@ -4245,19 +4245,19 @@
         <v>208.0</v>
       </c>
       <c r="B209" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C209" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D209" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E209" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F209" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="210">
@@ -4365,19 +4365,19 @@
         <v>214.0</v>
       </c>
       <c r="B215" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C215" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D215" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E215" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F215" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="216">
@@ -4385,19 +4385,19 @@
         <v>215.0</v>
       </c>
       <c r="B216" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C216" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D216" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E216" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F216" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="217">
@@ -4465,19 +4465,19 @@
         <v>219.0</v>
       </c>
       <c r="B220" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C220" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D220" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E220" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F220" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="221">
@@ -4565,19 +4565,19 @@
         <v>224.0</v>
       </c>
       <c r="B225" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C225" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D225" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E225" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F225" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="226">
@@ -4605,19 +4605,19 @@
         <v>226.0</v>
       </c>
       <c r="B227" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C227" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D227" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E227" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F227" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="228">
@@ -4625,19 +4625,19 @@
         <v>227.0</v>
       </c>
       <c r="B228" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C228" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D228" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E228" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F228" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="229">
@@ -4685,19 +4685,19 @@
         <v>230.0</v>
       </c>
       <c r="B231" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C231" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D231" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E231" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F231" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="232">
@@ -4745,19 +4745,19 @@
         <v>233.0</v>
       </c>
       <c r="B234" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C234" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D234" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E234" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F234" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="235">
@@ -4785,19 +4785,19 @@
         <v>235.0</v>
       </c>
       <c r="B236" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C236" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D236" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E236" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F236" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="237">
@@ -4845,19 +4845,19 @@
         <v>238.0</v>
       </c>
       <c r="B239" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C239" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D239" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E239" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F239" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="240">
@@ -4985,19 +4985,19 @@
         <v>245.0</v>
       </c>
       <c r="B246" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C246" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D246" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E246" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F246" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="247">
@@ -5025,19 +5025,19 @@
         <v>247.0</v>
       </c>
       <c r="B248" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C248" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D248" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E248" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F248" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="249">
@@ -5045,19 +5045,19 @@
         <v>248.0</v>
       </c>
       <c r="B249" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C249" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D249" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E249" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F249" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="250">
@@ -5085,19 +5085,19 @@
         <v>250.0</v>
       </c>
       <c r="B251" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C251" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D251" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E251" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F251" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="252">
@@ -5105,19 +5105,19 @@
         <v>251.0</v>
       </c>
       <c r="B252" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C252" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D252" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E252" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F252" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="253">
@@ -5165,19 +5165,19 @@
         <v>254.0</v>
       </c>
       <c r="B255" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C255" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D255" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E255" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F255" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="256">
@@ -5185,19 +5185,19 @@
         <v>255.0</v>
       </c>
       <c r="B256" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C256" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D256" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E256" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F256" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="257">
@@ -5225,19 +5225,19 @@
         <v>257.0</v>
       </c>
       <c r="B258" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C258" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D258" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E258" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F258" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="259">
@@ -5245,19 +5245,19 @@
         <v>258.0</v>
       </c>
       <c r="B259" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C259" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D259" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E259" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F259" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="260">
@@ -5285,19 +5285,19 @@
         <v>260.0</v>
       </c>
       <c r="B261" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C261" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D261" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E261" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F261" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="262">
@@ -5525,19 +5525,19 @@
         <v>272.0</v>
       </c>
       <c r="B273" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C273" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D273" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E273" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F273" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="274">
@@ -5685,19 +5685,19 @@
         <v>280.0</v>
       </c>
       <c r="B281" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C281" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D281" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E281" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F281" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="282">
@@ -5785,19 +5785,19 @@
         <v>285.0</v>
       </c>
       <c r="B286" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C286" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D286" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E286" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F286" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="287">
@@ -5805,19 +5805,19 @@
         <v>286.0</v>
       </c>
       <c r="B287" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C287" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D287" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E287" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F287" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="288">
@@ -5825,19 +5825,19 @@
         <v>287.0</v>
       </c>
       <c r="B288" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C288" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D288" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E288" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F288" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="289">
@@ -5845,19 +5845,19 @@
         <v>288.0</v>
       </c>
       <c r="B289" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C289" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D289" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E289" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F289" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="290">
@@ -5865,19 +5865,19 @@
         <v>289.0</v>
       </c>
       <c r="B290" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C290" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D290" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E290" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F290" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="291">
@@ -5885,19 +5885,19 @@
         <v>290.0</v>
       </c>
       <c r="B291" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C291" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D291" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E291" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F291" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="292">
@@ -5905,19 +5905,19 @@
         <v>291.0</v>
       </c>
       <c r="B292" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C292" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D292" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E292" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F292" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="293">
@@ -5925,19 +5925,19 @@
         <v>292.0</v>
       </c>
       <c r="B293" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C293" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D293" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E293" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F293" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="294">
@@ -5945,19 +5945,19 @@
         <v>293.0</v>
       </c>
       <c r="B294" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C294" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D294" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E294" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F294" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="295">
@@ -5965,19 +5965,19 @@
         <v>294.0</v>
       </c>
       <c r="B295" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C295" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D295" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E295" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F295" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="296">
@@ -5985,19 +5985,19 @@
         <v>295.0</v>
       </c>
       <c r="B296" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C296" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D296" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E296" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F296" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="297">
@@ -6005,19 +6005,19 @@
         <v>296.0</v>
       </c>
       <c r="B297" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C297" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D297" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E297" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F297" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="298">
@@ -6025,19 +6025,19 @@
         <v>297.0</v>
       </c>
       <c r="B298" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C298" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D298" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E298" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F298" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="299">
@@ -6065,19 +6065,19 @@
         <v>299.0</v>
       </c>
       <c r="B300" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C300" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D300" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E300" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F300" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="301">
@@ -6205,19 +6205,19 @@
         <v>306.0</v>
       </c>
       <c r="B307" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C307" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D307" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E307" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F307" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="308">
@@ -6285,19 +6285,19 @@
         <v>310.0</v>
       </c>
       <c r="B311" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C311" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D311" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E311" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F311" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="312">
@@ -6325,19 +6325,19 @@
         <v>312.0</v>
       </c>
       <c r="B313" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C313" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D313" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E313" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F313" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="314">
@@ -6545,19 +6545,19 @@
         <v>323.0</v>
       </c>
       <c r="B324" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C324" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D324" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E324" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F324" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="325">
@@ -6565,19 +6565,19 @@
         <v>324.0</v>
       </c>
       <c r="B325" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C325" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D325" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E325" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F325" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="326">
@@ -6585,19 +6585,19 @@
         <v>325.0</v>
       </c>
       <c r="B326" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C326" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D326" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E326" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F326" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="327">
@@ -6625,19 +6625,19 @@
         <v>327.0</v>
       </c>
       <c r="B328" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C328" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D328" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E328" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F328" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="329">
@@ -6705,19 +6705,19 @@
         <v>331.0</v>
       </c>
       <c r="B332" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C332" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D332" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E332" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F332" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="333">
@@ -6745,19 +6745,19 @@
         <v>333.0</v>
       </c>
       <c r="B334" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C334" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D334" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E334" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F334" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="335">
@@ -6765,19 +6765,19 @@
         <v>334.0</v>
       </c>
       <c r="B335" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C335" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D335" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E335" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F335" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="336">
@@ -6805,19 +6805,19 @@
         <v>336.0</v>
       </c>
       <c r="B337" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C337" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D337" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E337" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F337" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="338">
@@ -6925,19 +6925,19 @@
         <v>342.0</v>
       </c>
       <c r="B343" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C343" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D343" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E343" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F343" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="344">
@@ -6945,19 +6945,19 @@
         <v>343.0</v>
       </c>
       <c r="B344" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C344" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D344" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E344" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F344" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="345">
@@ -6985,19 +6985,19 @@
         <v>345.0</v>
       </c>
       <c r="B346" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C346" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D346" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E346" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F346" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="347">
@@ -7045,19 +7045,19 @@
         <v>348.0</v>
       </c>
       <c r="B349" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C349" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D349" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E349" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F349" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="350">
@@ -7105,19 +7105,19 @@
         <v>351.0</v>
       </c>
       <c r="B352" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C352" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D352" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E352" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F352" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="353">
@@ -7145,19 +7145,19 @@
         <v>353.0</v>
       </c>
       <c r="B354" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C354" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D354" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E354" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F354" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="355">
@@ -7245,19 +7245,19 @@
         <v>358.0</v>
       </c>
       <c r="B359" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C359" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D359" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E359" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F359" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="360">
@@ -7265,19 +7265,19 @@
         <v>359.0</v>
       </c>
       <c r="B360" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C360" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D360" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E360" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F360" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="361">
@@ -7365,19 +7365,19 @@
         <v>364.0</v>
       </c>
       <c r="B365" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C365" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D365" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E365" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F365" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="366">
@@ -7405,19 +7405,19 @@
         <v>366.0</v>
       </c>
       <c r="B367" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C367" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D367" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E367" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F367" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="368">
@@ -7425,19 +7425,19 @@
         <v>367.0</v>
       </c>
       <c r="B368" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C368" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D368" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E368" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F368" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="369">
@@ -7445,19 +7445,19 @@
         <v>368.0</v>
       </c>
       <c r="B369" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C369" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D369" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E369" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F369" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="370">
@@ -7465,19 +7465,19 @@
         <v>369.0</v>
       </c>
       <c r="B370" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C370" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D370" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E370" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F370" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="371">
@@ -7485,19 +7485,19 @@
         <v>370.0</v>
       </c>
       <c r="B371" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C371" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D371" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E371" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F371" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="372">
@@ -7505,19 +7505,19 @@
         <v>371.0</v>
       </c>
       <c r="B372" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C372" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D372" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E372" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F372" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="373">
@@ -7525,19 +7525,19 @@
         <v>372.0</v>
       </c>
       <c r="B373" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C373" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D373" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E373" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F373" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="374">
@@ -7545,19 +7545,19 @@
         <v>373.0</v>
       </c>
       <c r="B374" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C374" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D374" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E374" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F374" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="375">
@@ -7585,19 +7585,19 @@
         <v>375.0</v>
       </c>
       <c r="B376" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C376" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D376" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E376" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F376" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="377">
@@ -7605,19 +7605,19 @@
         <v>376.0</v>
       </c>
       <c r="B377" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C377" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D377" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E377" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F377" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="378">
@@ -7625,19 +7625,19 @@
         <v>377.0</v>
       </c>
       <c r="B378" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C378" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D378" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E378" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F378" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="379">
@@ -7645,19 +7645,19 @@
         <v>378.0</v>
       </c>
       <c r="B379" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C379" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D379" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E379" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F379" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="380">
@@ -7665,19 +7665,19 @@
         <v>379.0</v>
       </c>
       <c r="B380" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C380" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D380" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E380" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F380" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="381">
@@ -7725,19 +7725,19 @@
         <v>382.0</v>
       </c>
       <c r="B383" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C383" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D383" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E383" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F383" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="384">
@@ -7765,19 +7765,19 @@
         <v>384.0</v>
       </c>
       <c r="B385" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C385" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D385" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E385" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F385" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="386">
@@ -7785,19 +7785,19 @@
         <v>385.0</v>
       </c>
       <c r="B386" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C386" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D386" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E386" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F386" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="387">
@@ -7865,19 +7865,19 @@
         <v>389.0</v>
       </c>
       <c r="B390" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C390" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D390" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E390" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F390" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="391">
@@ -7885,19 +7885,19 @@
         <v>390.0</v>
       </c>
       <c r="B391" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C391" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D391" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E391" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F391" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="392">
@@ -7905,19 +7905,19 @@
         <v>391.0</v>
       </c>
       <c r="B392" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C392" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D392" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E392" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F392" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="393">
@@ -8085,19 +8085,19 @@
         <v>400.0</v>
       </c>
       <c r="B401" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C401" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D401" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E401" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F401" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="402">
@@ -8165,19 +8165,19 @@
         <v>404.0</v>
       </c>
       <c r="B405" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C405" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D405" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E405" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F405" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="406">
@@ -8245,19 +8245,19 @@
         <v>408.0</v>
       </c>
       <c r="B409" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C409" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D409" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E409" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F409" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="410">
@@ -8305,19 +8305,19 @@
         <v>411.0</v>
       </c>
       <c r="B412" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C412" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D412" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E412" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F412" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="413">
@@ -8585,19 +8585,19 @@
         <v>425.0</v>
       </c>
       <c r="B426" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C426" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D426" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E426" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F426" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="427">
@@ -8685,19 +8685,19 @@
         <v>430.0</v>
       </c>
       <c r="B431" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C431" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D431" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E431" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F431" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="432">
@@ -8705,19 +8705,19 @@
         <v>431.0</v>
       </c>
       <c r="B432" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C432" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D432" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E432" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F432" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="433">
@@ -8725,19 +8725,19 @@
         <v>432.0</v>
       </c>
       <c r="B433" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C433" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D433" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E433" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F433" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="434">
@@ -8745,19 +8745,19 @@
         <v>433.0</v>
       </c>
       <c r="B434" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C434" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D434" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E434" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F434" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="435">
@@ -8785,19 +8785,19 @@
         <v>435.0</v>
       </c>
       <c r="B436" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C436" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D436" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E436" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F436" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="437">
@@ -8805,19 +8805,19 @@
         <v>436.0</v>
       </c>
       <c r="B437" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C437" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D437" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E437" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F437" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="438">
@@ -8845,19 +8845,19 @@
         <v>438.0</v>
       </c>
       <c r="B439" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C439" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D439" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E439" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F439" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="440">
@@ -8865,19 +8865,19 @@
         <v>439.0</v>
       </c>
       <c r="B440" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C440" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D440" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E440" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F440" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="441">
@@ -8885,19 +8885,19 @@
         <v>440.0</v>
       </c>
       <c r="B441" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C441" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D441" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E441" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F441" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="442">
@@ -8905,19 +8905,19 @@
         <v>441.0</v>
       </c>
       <c r="B442" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C442" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D442" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E442" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F442" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="443">
@@ -8925,19 +8925,19 @@
         <v>442.0</v>
       </c>
       <c r="B443" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C443" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D443" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E443" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F443" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="444">
@@ -9025,19 +9025,19 @@
         <v>447.0</v>
       </c>
       <c r="B448" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C448" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D448" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E448" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F448" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="449">
@@ -9205,19 +9205,19 @@
         <v>456.0</v>
       </c>
       <c r="B457" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C457" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D457" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E457" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F457" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="458">
@@ -9245,19 +9245,19 @@
         <v>458.0</v>
       </c>
       <c r="B459" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C459" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D459" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E459" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F459" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="460">
@@ -9325,19 +9325,19 @@
         <v>462.0</v>
       </c>
       <c r="B463" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C463" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D463" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E463" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F463" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="464">
@@ -9605,19 +9605,19 @@
         <v>476.0</v>
       </c>
       <c r="B477" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C477" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D477" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E477" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F477" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="478">
@@ -9645,19 +9645,19 @@
         <v>478.0</v>
       </c>
       <c r="B479" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C479" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D479" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E479" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F479" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="480">
@@ -9685,19 +9685,19 @@
         <v>480.0</v>
       </c>
       <c r="B481" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C481" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D481" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E481" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F481" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="482">
@@ -9805,19 +9805,19 @@
         <v>486.0</v>
       </c>
       <c r="B487" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C487" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D487" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E487" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F487" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="488">
@@ -9825,19 +9825,19 @@
         <v>487.0</v>
       </c>
       <c r="B488" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C488" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D488" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E488" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F488" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="489">
@@ -10005,19 +10005,19 @@
         <v>496.0</v>
       </c>
       <c r="B497" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C497" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D497" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E497" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F497" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="498">
@@ -10105,19 +10105,19 @@
         <v>501.0</v>
       </c>
       <c r="B502" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C502" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D502" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E502" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F502" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="503">
@@ -10125,19 +10125,19 @@
         <v>502.0</v>
       </c>
       <c r="B503" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C503" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D503" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E503" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F503" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="504">
@@ -10185,19 +10185,19 @@
         <v>505.0</v>
       </c>
       <c r="B506" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C506" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D506" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E506" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F506" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="507">
@@ -10205,19 +10205,19 @@
         <v>506.0</v>
       </c>
       <c r="B507" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C507" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D507" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E507" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F507" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="508">
@@ -10305,19 +10305,19 @@
         <v>511.0</v>
       </c>
       <c r="B512" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C512" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D512" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E512" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F512" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="513">
@@ -10365,19 +10365,19 @@
         <v>514.0</v>
       </c>
       <c r="B515" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C515" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D515" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E515" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F515" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="516">
@@ -10385,19 +10385,19 @@
         <v>515.0</v>
       </c>
       <c r="B516" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C516" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D516" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E516" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F516" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="517">
@@ -10625,19 +10625,19 @@
         <v>527.0</v>
       </c>
       <c r="B528" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C528" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D528" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E528" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F528" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="529">
@@ -10645,19 +10645,19 @@
         <v>528.0</v>
       </c>
       <c r="B529" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C529" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D529" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E529" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F529" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="530">
@@ -10665,19 +10665,19 @@
         <v>529.0</v>
       </c>
       <c r="B530" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C530" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D530" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E530" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F530" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="531">
@@ -10725,19 +10725,19 @@
         <v>532.0</v>
       </c>
       <c r="B533" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C533" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D533" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E533" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F533" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="534">
@@ -10825,19 +10825,19 @@
         <v>537.0</v>
       </c>
       <c r="B538" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C538" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D538" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E538" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F538" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="539">
@@ -10845,19 +10845,19 @@
         <v>538.0</v>
       </c>
       <c r="B539" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C539" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D539" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E539" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F539" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="540">
@@ -10865,19 +10865,19 @@
         <v>539.0</v>
       </c>
       <c r="B540" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C540" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D540" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E540" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F540" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="541">
@@ -10925,19 +10925,19 @@
         <v>542.0</v>
       </c>
       <c r="B543" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C543" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D543" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E543" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F543" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="544">
@@ -10945,19 +10945,19 @@
         <v>543.0</v>
       </c>
       <c r="B544" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C544" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D544" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E544" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F544" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="545">
@@ -10965,19 +10965,19 @@
         <v>544.0</v>
       </c>
       <c r="B545" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C545" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D545" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E545" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F545" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="546">
@@ -10985,19 +10985,19 @@
         <v>545.0</v>
       </c>
       <c r="B546" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C546" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D546" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E546" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F546" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="547">
@@ -11165,19 +11165,19 @@
         <v>554.0</v>
       </c>
       <c r="B555" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C555" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D555" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E555" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F555" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="556">
@@ -11185,19 +11185,19 @@
         <v>555.0</v>
       </c>
       <c r="B556" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C556" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D556" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E556" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F556" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="557">
@@ -11265,19 +11265,19 @@
         <v>559.0</v>
       </c>
       <c r="B560" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C560" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D560" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E560" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F560" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="561">
@@ -11345,19 +11345,19 @@
         <v>563.0</v>
       </c>
       <c r="B564" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C564" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D564" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E564" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F564" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="565">
@@ -11445,19 +11445,19 @@
         <v>568.0</v>
       </c>
       <c r="B569" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C569" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D569" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E569" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F569" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="570">
@@ -11465,19 +11465,19 @@
         <v>569.0</v>
       </c>
       <c r="B570" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C570" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D570" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E570" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F570" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="571">
@@ -11485,19 +11485,19 @@
         <v>570.0</v>
       </c>
       <c r="B571" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C571" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D571" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E571" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F571" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="572">
@@ -11505,19 +11505,19 @@
         <v>571.0</v>
       </c>
       <c r="B572" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C572" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D572" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E572" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F572" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="573">
@@ -11525,19 +11525,19 @@
         <v>572.0</v>
       </c>
       <c r="B573" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C573" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D573" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E573" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F573" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="574">
@@ -11545,19 +11545,19 @@
         <v>573.0</v>
       </c>
       <c r="B574" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C574" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D574" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E574" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F574" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="575">
@@ -11725,19 +11725,19 @@
         <v>582.0</v>
       </c>
       <c r="B583" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C583" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D583" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E583" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F583" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="584">
@@ -11805,19 +11805,19 @@
         <v>586.0</v>
       </c>
       <c r="B587" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C587" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D587" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E587" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F587" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="588">
@@ -11845,19 +11845,19 @@
         <v>588.0</v>
       </c>
       <c r="B589" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C589" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D589" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E589" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F589" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="590">
@@ -11865,19 +11865,19 @@
         <v>589.0</v>
       </c>
       <c r="B590" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C590" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D590" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E590" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F590" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="591">
@@ -11885,19 +11885,19 @@
         <v>590.0</v>
       </c>
       <c r="B591" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C591" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D591" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E591" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F591" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="592">
@@ -11945,19 +11945,19 @@
         <v>593.0</v>
       </c>
       <c r="B594" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C594" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D594" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E594" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F594" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="595">
@@ -11965,19 +11965,19 @@
         <v>594.0</v>
       </c>
       <c r="B595" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C595" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D595" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E595" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F595" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="596">
@@ -12005,19 +12005,19 @@
         <v>596.0</v>
       </c>
       <c r="B597" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C597" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D597" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E597" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F597" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="598">
@@ -12105,19 +12105,19 @@
         <v>601.0</v>
       </c>
       <c r="B602" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C602" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D602" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E602" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F602" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="603">
@@ -12145,19 +12145,19 @@
         <v>603.0</v>
       </c>
       <c r="B604" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C604" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D604" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E604" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F604" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="605">
@@ -12265,19 +12265,19 @@
         <v>609.0</v>
       </c>
       <c r="B610" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C610" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D610" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E610" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F610" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="611">
@@ -12345,19 +12345,19 @@
         <v>613.0</v>
       </c>
       <c r="B614" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C614" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D614" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E614" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F614" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="615">
@@ -12445,19 +12445,19 @@
         <v>618.0</v>
       </c>
       <c r="B619" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C619" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D619" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E619" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F619" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="620">
@@ -12485,19 +12485,19 @@
         <v>620.0</v>
       </c>
       <c r="B621" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C621" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D621" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E621" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F621" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="622">
@@ -12525,19 +12525,19 @@
         <v>622.0</v>
       </c>
       <c r="B623" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C623" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D623" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E623" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F623" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="624">
@@ -12545,19 +12545,19 @@
         <v>623.0</v>
       </c>
       <c r="B624" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="C624" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="D624" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="E624" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
       <c r="F624" t="n">
-        <v>-100.0</v>
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="625">
